--- a/data/Deng_2016.xlsx
+++ b/data/Deng_2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9366CB4-A5BF-EA47-8737-2C96F6CCEBBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2BCA55-8343-6641-A2B6-462CBC130891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{9CE86BD2-1BAA-3F4E-BB5D-92D40797F4D1}"/>
+    <workbookView xWindow="2780" yWindow="460" windowWidth="22280" windowHeight="17540" xr2:uid="{9CE86BD2-1BAA-3F4E-BB5D-92D40797F4D1}"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="15">
   <si>
     <t>Time[hour(s)]</t>
   </si>
@@ -75,7 +75,10 @@
     <t>WT_Deng_30_mgkg</t>
   </si>
   <si>
-    <t>Blood.antiPDL1_free[%ID/g]</t>
+    <t>Dose2[mg/kg]</t>
+  </si>
+  <si>
+    <t>Blood.antiPDL1[%ID/g]</t>
   </si>
 </sst>
 </file>
@@ -436,24 +439,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEC6B0C-F4CC-8945-ABA8-120CB87CAE53}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -462,13 +466,16 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -481,14 +488,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -503,14 +513,17 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -525,14 +538,17 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>24</v>
       </c>
@@ -547,14 +563,17 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>48</v>
       </c>
@@ -569,14 +588,17 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>96</v>
       </c>
@@ -591,14 +613,17 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -613,14 +638,17 @@
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -635,14 +663,17 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -657,14 +688,17 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>24</v>
       </c>
@@ -679,14 +713,17 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>48</v>
       </c>
@@ -701,14 +738,17 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>96</v>
       </c>
@@ -723,14 +763,17 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>168</v>
       </c>
@@ -745,14 +788,17 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -767,14 +813,17 @@
       <c r="D15">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -789,14 +838,17 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -811,14 +863,17 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>11</v>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>24</v>
       </c>
@@ -833,14 +888,17 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>48</v>
       </c>
@@ -855,14 +913,17 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>11</v>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>96</v>
       </c>
@@ -877,14 +938,17 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>11</v>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>168</v>
       </c>
@@ -899,14 +963,17 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>336</v>
       </c>
@@ -921,10 +988,13 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>11</v>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
         <v>12</v>
       </c>
     </row>
